--- a/cases/2021sdzyydxfsyy/维度导向库.xlsx
+++ b/cases/2021sdzyydxfsyy/维度导向库.xlsx
@@ -380,1032 +380,1032 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" customWidth="1" width="16"/>
+    <col min="1" max="1" customWidth="1" width="9"/>
     <col min="2" max="2" customWidth="1" width="9"/>
-    <col min="3" max="3" customWidth="1" width="9"/>
+    <col min="3" max="3" customWidth="1" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>数据名</v>
+        <v>二级维度</v>
       </c>
       <c r="B1" t="str">
         <v>指标导向</v>
       </c>
       <c r="C1" t="str">
-        <v>二级维度</v>
+        <v>数据名</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>医保价值</v>
+      </c>
+      <c r="B2" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C2" t="str">
         <v>CMI值</v>
-      </c>
-      <c r="B2" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C2" t="str">
-        <v>医保价值</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
+        <v>医保价值</v>
+      </c>
+      <c r="B3" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C3" t="str">
         <v>CMI当量DRGs组数</v>
-      </c>
-      <c r="B3" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C3" t="str">
-        <v>医保价值</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B4" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C4" t="str">
         <v>I类切口手术部位感染率</v>
-      </c>
-      <c r="B4" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C4" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B5" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C5" t="str">
         <v>SCI平均影响因子</v>
-      </c>
-      <c r="B5" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C5" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B6" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C6" t="str">
         <v>万元收入能耗占比</v>
-      </c>
-      <c r="B6" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C6" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B7" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C7" t="str">
         <v>下转患者人次数</v>
-      </c>
-      <c r="B7" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C7" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B8" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C8" t="str">
         <v>中医医师占比</v>
-      </c>
-      <c r="B8" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C8" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B9" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C9" t="str">
         <v>中药饮片收入占药品收入比例</v>
-      </c>
-      <c r="B9" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C9" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B10" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C10" t="str">
         <v>人员经费占比</v>
-      </c>
-      <c r="B10" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C10" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B11" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C11" t="str">
         <v>以中医为主治疗的出院患者比例</v>
-      </c>
-      <c r="B11" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C11" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B12" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C12" t="str">
         <v>低风险组病例死亡率</v>
-      </c>
-      <c r="B12" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C12" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B13" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C13" t="str">
         <v>住院患者出院后0到31天非预期再住院率</v>
-      </c>
-      <c r="B13" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C13" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B14" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C14" t="str">
         <v>住院患者基本药物使用率</v>
-      </c>
-      <c r="B14" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C14" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B15" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C15" t="str">
         <v>住院手术患者围手术期中医治疗比例</v>
-      </c>
-      <c r="B15" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C15" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>住院收入占医疗收入比例</v>
+        <v>收支结构</v>
       </c>
       <c r="B16" t="str">
         <v>无标准</v>
       </c>
       <c r="C16" t="str">
-        <v>收支结构</v>
+        <v>住院收入占医疗收入比例</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="B17" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C17" t="str">
         <v>住院次均费用增幅</v>
-      </c>
-      <c r="B17" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C17" t="str">
-        <v>费用控制</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B18" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C18" t="str">
         <v>儿科医师占比</v>
-      </c>
-      <c r="B18" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C18" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B19" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C19" t="str">
         <v>出院患者三级手术占比</v>
-      </c>
-      <c r="B19" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C19" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B20" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C20" t="str">
         <v>出院患者中药饮片使用率</v>
-      </c>
-      <c r="B20" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C20" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B21" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C21" t="str">
         <v>出院患者使用中医非药物疗法比例</v>
-      </c>
-      <c r="B21" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C21" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B22" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C22" t="str">
         <v>出院患者四级手术比例</v>
-      </c>
-      <c r="B22" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C22" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B23" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C23" t="str">
         <v>出院患者微创手术占比</v>
-      </c>
-      <c r="B23" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C23" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B24" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C24" t="str">
         <v>出院患者手术占比</v>
-      </c>
-      <c r="B24" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C24" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B25" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C25" t="str">
         <v>医师人均SCI文章数量</v>
-      </c>
-      <c r="B25" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C25" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B26" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C26" t="str">
         <v>医师人均国内中文核心期刊文章数量</v>
-      </c>
-      <c r="B26" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C26" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B27" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C27" t="str">
         <v>医师人均国家级科研项目数量</v>
-      </c>
-      <c r="B27" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C27" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B28" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C28" t="str">
         <v>医师人均国家自然科学基金项目数量</v>
-      </c>
-      <c r="B28" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C28" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B29" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C29" t="str">
         <v>医师副高职称占比</v>
-      </c>
-      <c r="B29" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C29" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B30" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C30" t="str">
         <v>医师博士占比</v>
-      </c>
-      <c r="B30" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C30" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B31" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C31" t="str">
         <v>医师硕士占比</v>
-      </c>
-      <c r="B31" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C31" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B32" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C32" t="str">
         <v>医师高级职称占比</v>
-      </c>
-      <c r="B32" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C32" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>医床比</v>
+        <v>质量安全</v>
       </c>
       <c r="B33" t="str">
         <v>有标准</v>
       </c>
       <c r="C33" t="str">
-        <v>质量安全</v>
+        <v>医床比</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>医护比</v>
+        <v>人员结构</v>
       </c>
       <c r="B34" t="str">
         <v>有标准</v>
       </c>
       <c r="C34" t="str">
-        <v>人员结构</v>
+        <v>医护比</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="B35" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C35" t="str">
         <v>医疗收入增幅</v>
-      </c>
-      <c r="B35" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C35" t="str">
-        <v>费用控制</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
+        <v>医服收入</v>
+      </c>
+      <c r="B36" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C36" t="str">
         <v>医疗服务收入三年复合增长率</v>
-      </c>
-      <c r="B36" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C36" t="str">
-        <v>医服收入</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
+        <v>医服收入</v>
+      </c>
+      <c r="B37" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C37" t="str">
         <v>医疗服务收入占全院比重</v>
-      </c>
-      <c r="B37" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C37" t="str">
-        <v>医服收入</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B38" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C38" t="str">
         <v>医疗服务收入占医疗收入比例</v>
-      </c>
-      <c r="B38" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C38" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>医疗盈余率</v>
+        <v>收支结构</v>
       </c>
       <c r="B39" t="str">
         <v>无标准</v>
       </c>
       <c r="C39" t="str">
-        <v>收支结构</v>
+        <v>医疗盈余率</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
+        <v>人才培养</v>
+      </c>
+      <c r="B40" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C40" t="str">
         <v>医院在医学人才培养方面的经费投入占比</v>
-      </c>
-      <c r="B40" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C40" t="str">
-        <v>人才培养</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B41" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C41" t="str">
         <v>医院感染发生率</v>
-      </c>
-      <c r="B41" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C41" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
+        <v>地位影响</v>
+      </c>
+      <c r="B42" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C42" t="str">
         <v>博士研究生导师占比</v>
-      </c>
-      <c r="B42" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C42" t="str">
-        <v>地位影响</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B43" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C43" t="str">
         <v>员工副高职称占比</v>
-      </c>
-      <c r="B43" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C43" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B44" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C44" t="str">
         <v>员工博士占比</v>
-      </c>
-      <c r="B44" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C44" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B45" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C45" t="str">
         <v>员工正高职称占比</v>
-      </c>
-      <c r="B45" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C45" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B46" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C46" t="str">
         <v>员工硕士占比</v>
-      </c>
-      <c r="B46" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C46" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B47" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C47" t="str">
         <v>基本药物采购品种数占比</v>
-      </c>
-      <c r="B47" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C47" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
+        <v>地位影响</v>
+      </c>
+      <c r="B48" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C48" t="str">
         <v>外省住院患者占比</v>
-      </c>
-      <c r="B48" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C48" t="str">
-        <v>地位影响</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B49" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C49" t="str">
         <v>大型医用设备检查阳性率</v>
-      </c>
-      <c r="B49" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C49" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="B50" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C50" t="str">
         <v>平均住院日</v>
-      </c>
-      <c r="B50" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C50" t="str">
-        <v>服务流程</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B51" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C51" t="str">
         <v>手术患者并发症发生率</v>
-      </c>
-      <c r="B51" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C51" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B52" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C52" t="str">
         <v>抗菌药物使用强度DDDs</v>
-      </c>
-      <c r="B52" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C52" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B53" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C53" t="str">
         <v>抗菌药物费用占药费总额的百分率</v>
-      </c>
-      <c r="B53" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C53" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>护床比</v>
+        <v>质量安全</v>
       </c>
       <c r="B54" t="str">
         <v>有标准</v>
       </c>
       <c r="C54" t="str">
-        <v>质量安全</v>
+        <v>护床比</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B55" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C55" t="str">
         <v>护理人员系统接受中医药知识和技能培训比例</v>
-      </c>
-      <c r="B55" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C55" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="B56" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C56" t="str">
         <v>择期手术患者术前平均住院日</v>
-      </c>
-      <c r="B56" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C56" t="str">
-        <v>服务流程</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B57" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C57" t="str">
         <v>检查检验收入占比</v>
-      </c>
-      <c r="B57" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C57" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="B58" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C58" t="str">
         <v>每医师住院手术量</v>
-      </c>
-      <c r="B58" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C58" t="str">
-        <v>资源效率</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>每医师住院收入</v>
+        <v>资源效率</v>
       </c>
       <c r="B59" t="str">
         <v>无标准</v>
       </c>
       <c r="C59" t="str">
-        <v>资源效率</v>
+        <v>每医师住院收入</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>每医师门急诊收入</v>
+        <v>资源效率</v>
       </c>
       <c r="B60" t="str">
         <v>无标准</v>
       </c>
       <c r="C60" t="str">
-        <v>资源效率</v>
+        <v>每医师门急诊收入</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>每名执业医师日均住院工作负担</v>
+        <v>资源效率</v>
       </c>
       <c r="B61" t="str">
         <v>无标准</v>
       </c>
       <c r="C61" t="str">
-        <v>资源效率</v>
+        <v>每名执业医师日均住院工作负担</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>每名执业医师日均门诊工作负担</v>
+        <v>资源效率</v>
       </c>
       <c r="B62" t="str">
         <v>无标准</v>
       </c>
       <c r="C62" t="str">
-        <v>资源效率</v>
+        <v>每名执业医师日均门诊工作负担</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>每床出院量</v>
+        <v>资源效率</v>
       </c>
       <c r="B63" t="str">
         <v>无标准</v>
       </c>
       <c r="C63" t="str">
-        <v>资源效率</v>
+        <v>每床出院量</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>每床平均住院收入</v>
+        <v>资源效率</v>
       </c>
       <c r="B64" t="str">
         <v>无标准</v>
       </c>
       <c r="C64" t="str">
-        <v>资源效率</v>
+        <v>每床平均住院收入</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B65" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C65" t="str">
         <v>每百名卫生技术人员中医药科研项目经费</v>
-      </c>
-      <c r="B65" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C65" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B66" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C66" t="str">
         <v>每百名卫生技术人员科研成果转化金额</v>
-      </c>
-      <c r="B66" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C66" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
+        <v>学科建设</v>
+      </c>
+      <c r="B67" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C67" t="str">
         <v>每百名卫生技术人员科研项目经费</v>
-      </c>
-      <c r="B67" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C67" t="str">
-        <v>学科建设</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
+        <v>资源效率</v>
+      </c>
+      <c r="B68" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C68" t="str">
         <v>每百张病床药师人数</v>
-      </c>
-      <c r="B68" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C68" t="str">
-        <v>资源效率</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B69" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C69" t="str">
         <v>点评中药处方占中药处方总数的比例</v>
-      </c>
-      <c r="B69" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C69" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B70" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C70" t="str">
         <v>点评处方占处方总数的比例</v>
-      </c>
-      <c r="B70" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C70" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
+        <v>质量安全</v>
+      </c>
+      <c r="B71" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C71" t="str">
         <v>理法方药使用一致的出院患者比例</v>
-      </c>
-      <c r="B71" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C71" t="str">
-        <v>质量安全</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="B72" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C72" t="str">
         <v>电子病历应用功能水平分级</v>
-      </c>
-      <c r="B72" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C72" t="str">
-        <v>服务流程</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>病床使用率</v>
+        <v>服务流程</v>
       </c>
       <c r="B73" t="str">
         <v>无标准</v>
       </c>
       <c r="C73" t="str">
-        <v>服务流程</v>
+        <v>病床使用率</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B74" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C74" t="str">
         <v>病理医师占比</v>
-      </c>
-      <c r="B74" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C74" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
+        <v>地位影响</v>
+      </c>
+      <c r="B75" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C75" t="str">
         <v>硕士研究生导师占比</v>
-      </c>
-      <c r="B75" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C75" t="str">
-        <v>地位影响</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B76" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C76" t="str">
         <v>耗材占比</v>
-      </c>
-      <c r="B76" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C76" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B77" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C77" t="str">
         <v>药占比</v>
-      </c>
-      <c r="B77" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C77" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B78" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C78" t="str">
         <v>资产负债率</v>
-      </c>
-      <c r="B78" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C78" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
+        <v>地位影响</v>
+      </c>
+      <c r="B79" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C79" t="str">
         <v>重点学科等级评分</v>
-      </c>
-      <c r="B79" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C79" t="str">
-        <v>地位影响</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B80" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C80" t="str">
         <v>重点监控高值医用耗材收入占比</v>
-      </c>
-      <c r="B80" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C80" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B81" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C81" t="str">
         <v>重症医师占比</v>
-      </c>
-      <c r="B81" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C81" t="str">
-        <v>人员结构</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
+        <v>收支结构</v>
+      </c>
+      <c r="B82" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C82" t="str">
         <v>门诊中医医疗服务项目收入占门诊医疗收入比例</v>
-      </c>
-      <c r="B82" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C82" t="str">
-        <v>收支结构</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B83" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C83" t="str">
         <v>门诊中药处方比例</v>
-      </c>
-      <c r="B83" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C83" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B84" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C84" t="str">
         <v>门诊患者中药饮片使用率</v>
-      </c>
-      <c r="B84" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C84" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B85" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C85" t="str">
         <v>门诊患者使用中医非药物疗法比例</v>
-      </c>
-      <c r="B85" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C85" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B86" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C86" t="str">
         <v>门诊患者基本药物处方占比</v>
-      </c>
-      <c r="B86" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C86" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
+        <v>服务流程</v>
+      </c>
+      <c r="B87" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C87" t="str">
         <v>门诊患者平均预约诊疗率</v>
-      </c>
-      <c r="B87" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C87" t="str">
-        <v>服务流程</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
+        <v>合理用药</v>
+      </c>
+      <c r="B88" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C88" t="str">
         <v>门诊患者抗菌药物使用率</v>
-      </c>
-      <c r="B88" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C88" t="str">
-        <v>合理用药</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>门诊收入占医疗收入比例</v>
+        <v>收支结构</v>
       </c>
       <c r="B89" t="str">
         <v>无标准</v>
       </c>
       <c r="C89" t="str">
-        <v>收支结构</v>
+        <v>门诊收入占医疗收入比例</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
+        <v>功能定位</v>
+      </c>
+      <c r="B90" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C90" t="str">
         <v>门诊散装中药饮片和小包装中药饮片处方比例</v>
-      </c>
-      <c r="B90" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C90" t="str">
-        <v>功能定位</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
+        <v>费用控制</v>
+      </c>
+      <c r="B91" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C91" t="str">
         <v>门诊次均费用增幅</v>
-      </c>
-      <c r="B91" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C91" t="str">
-        <v>费用控制</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
+        <v>地位影响</v>
+      </c>
+      <c r="B92" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="C92" t="str">
         <v>非医嘱离院率</v>
-      </c>
-      <c r="B92" t="str">
-        <v>逐步降低</v>
-      </c>
-      <c r="C92" t="str">
-        <v>地位影响</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
+        <v>人员结构</v>
+      </c>
+      <c r="B93" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="C93" t="str">
         <v>麻醉医师占比</v>
-      </c>
-      <c r="B93" t="str">
-        <v>逐步提高</v>
-      </c>
-      <c r="C93" t="str">
-        <v>人员结构</v>
       </c>
     </row>
   </sheetData>

--- a/cases/2021sdzyydxfsyy/维度导向库.xlsx
+++ b/cases/2021sdzyydxfsyy/维度导向库.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="113">
   <si>
     <t xml:space="preserve">二级指标</t>
   </si>
@@ -31,12 +31,114 @@
     <t xml:space="preserve">数据名</t>
   </si>
   <si>
+    <t xml:space="preserve">本位权重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逐步提高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中医医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">儿科医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师副高职称占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师博士占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师硕士占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师高级职称占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有标准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医护比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工副高职称占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工博士占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工正高职称占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">员工硕士占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病理医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重症医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">麻醉医师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人才培养</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">功能定位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者三级手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者四级手术比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者微创手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中药处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
+  </si>
+  <si>
     <t xml:space="preserve">医保价值</t>
   </si>
   <si>
-    <t xml:space="preserve">逐步提高</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -53,6 +155,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
@@ -74,6 +177,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当量</t>
     </r>
@@ -93,17 +197,229 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组数</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">医服收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占全院比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合理用药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逐步降低</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">抗菌药物使用强度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DDDs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">抗菌药物费用占药费总额的百分率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者抗菌药物使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地位影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">博士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外省住院患者占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点学科等级评分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非医嘱离院率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学科建设</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">平均影响因子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">医师人均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SCI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">文章数量</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国内中文核心期刊文章数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国家级科研项目数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医师人均国家自然科学基金项目数量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万元收入能耗占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员经费占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无标准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗盈余率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查检验收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">耗材占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">药占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产负债率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务流程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">平均住院日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">择期手术患者术前平均住院日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病床使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
     <t xml:space="preserve">质量安全</t>
   </si>
   <si>
-    <t xml:space="preserve">逐步降低</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -120,14 +436,25 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类切口手术部位感染率</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">学科建设</t>
-  </si>
-  <si>
+    <t xml:space="preserve">低风险组病例死亡率</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">住院患者出院后</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -136,7 +463,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SCI</t>
+      <t xml:space="preserve">0</t>
     </r>
     <r>
       <rPr>
@@ -144,103 +471,48 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">平均影响因子</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元收入能耗占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">功能定位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员经费占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低风险组病例死亡率</t>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">31</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">住院患者出院后</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">31</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">天非预期再住院率</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">合理用药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无标准</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院收入占医疗收入比例</t>
+    <t xml:space="preserve">医床比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院感染发生率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">大型医用设备检查阳性率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手术患者并发症发生率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">护床比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
   </si>
   <si>
     <t xml:space="preserve">费用控制</t>
@@ -249,184 +521,10 @@
     <t xml:space="preserve">住院次均费用增幅</t>
   </si>
   <si>
-    <t xml:space="preserve">儿科医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者三级手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者四级手术比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者微创手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者手术占比</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">医师人均</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SCI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">文章数量</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医师人均国内中文核心期刊文章数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师人均国家级科研项目数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师人均国家自然科学基金项目数量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师副高职称占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师博士占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师硕士占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师高级职称占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有标准</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医床比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医护比</t>
-  </si>
-  <si>
     <t xml:space="preserve">医疗收入增幅</t>
   </si>
   <si>
-    <t xml:space="preserve">医服收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占全院比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗盈余率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院感染发生率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地位影响</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工副高职称占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工博士占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工正高职称占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">员工硕士占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外省住院患者占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">大型医用设备检查阳性率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务流程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手术患者并发症发生率</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">DDDs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">抗菌药物费用占药费总额的百分率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护床比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">择期手术患者术前平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">检查检验收入占比</t>
+    <t xml:space="preserve">门诊次均费用增幅</t>
   </si>
   <si>
     <t xml:space="preserve">资源效率</t>
@@ -453,91 +551,7 @@
     <t xml:space="preserve">每床平均住院收入</t>
   </si>
   <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
     <t xml:space="preserve">每百张病床药师人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病床使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病理医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">耗材占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">药占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资产负债率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点学科等级评分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中药处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者抗菌药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非医嘱离院率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻醉医师占比</t>
   </si>
 </sst>
 </file>
@@ -547,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -569,6 +583,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -619,12 +640,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,17 +670,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C93"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -668,904 +693,919 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>43</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0.618</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0.382</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0.382</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0.618</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>92</v>
+        <v>47</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C77" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>101</v>
@@ -1573,10 +1613,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>102</v>
@@ -1584,10 +1624,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>103</v>
@@ -1595,90 +1635,90 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
